--- a/output/date/2021-12-18/2021-12-18_프린터기.xlsx
+++ b/output/date/2021-12-18/2021-12-18_프린터기.xlsx
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NIIMBOT D11 네임스티커 라벨&lt;b&gt;프린터&lt;/b&gt;</t>
+          <t>NIIMBOT D11 네임스티커 라벨프린터</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HP 2131 가정용 &lt;b&gt;프린터기&lt;/b&gt; 무한잉크 복합기 잉크젯 &lt;b&gt;프린트&lt;/b&gt; 복사 공기계</t>
+          <t>HP 2131 가정용 프린터기 무한잉크 복합기 잉크젯 프린트 복사 공기계</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>아이티씨 퓨리웨이 휴대용 무선 라벨&lt;b&gt;프린터&lt;/b&gt; D11</t>
+          <t>아이티씨 퓨리웨이 휴대용 무선 라벨프린터 D11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>디앤에스글로벌 휴대용 멀티 스티커 &lt;b&gt;프린터&lt;/b&gt; 프릭커</t>
+          <t>디앤에스글로벌 휴대용 멀티 스티커 프린터 프릭커</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>캐논코리아정품 Canon SELPHY CP1300 셀프 사진 인화기 포토 &lt;b&gt;프린터&lt;/b&gt;</t>
+          <t>캐논코리아정품 Canon SELPHY CP1300 셀프 사진 인화기 포토 프린터</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>엡손 EcoTank 흑백 &lt;b&gt;프린터&lt;/b&gt; M1120 정품 무한잉크</t>
+          <t>엡손 EcoTank 흑백 프린터 M1120 정품 무한잉크</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>디엠케이인터내셔날 시노링크 라벨&lt;b&gt;프린터&lt;/b&gt; D11</t>
+          <t>디엠케이인터내셔날 시노링크 라벨프린터 D11</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>엡손 정품 휴대용 라벨 &lt;b&gt;프린터&lt;/b&gt; 네임스티커 라벨기 카카오 리락쿠마</t>
+          <t>엡손 정품 휴대용 라벨 프린터 네임스티커 라벨기 카카오 리락쿠마</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>삼성 &lt;b&gt;프린터&lt;/b&gt; 컬러 레이저 &lt;b&gt;프린트&lt;/b&gt; 가정용 사무실 무선 와이파이 레이져 복합기 팩스 스캔 복사</t>
+          <t>삼성 프린터 컬러 레이저 프린트 가정용 사무실 무선 와이파이 레이져 복합기 팩스 스캔 복사</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>조이풀웍스 SIRO 휴대용 무선 라벨&lt;b&gt;프린터&lt;/b&gt; E10</t>
+          <t>조이풀웍스 SIRO 휴대용 무선 라벨프린터 E10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HP8710 HP 9010 HP7740 HP7720 epson2850 가정용&lt;b&gt;프린터&lt;/b&gt; 무한잉크 A3복합기</t>
+          <t>HP8710 HP 9010 HP7740 HP7720 epson2850 가정용프린터 무한잉크 A3복합기</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>부라더 라벨&lt;b&gt;프린터&lt;/b&gt; 모음[브라더 라벨기 휴대용 라벨터치 네임스티커 &lt;b&gt;프린터&lt;/b&gt;]</t>
+          <t>부라더 라벨프린터 모음[브라더 라벨기 휴대용 라벨터치 네임스티커 프린터]</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>삼성 복합기렌탈 CLX-6260FR 사무용 컬러 레이저 &lt;b&gt;프린터&lt;/b&gt; 임대 36개월</t>
+          <t>삼성 복합기렌탈 CLX-6260FR 사무용 컬러 레이저 프린터 임대 36개월</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hp오피스젯 7740 A3복합기 무한잉크 복합기 &lt;b&gt;프린터&lt;/b&gt; HP7740 HP7612 후속</t>
+          <t>hp오피스젯 7740 A3복합기 무한잉크 복합기 프린터 HP7740 HP7612 후속</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>샤오미 미지아 포켓 포토 &lt;b&gt;프린터&lt;/b&gt;</t>
+          <t>샤오미 미지아 포켓 포토 프린터</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>캐논코리아정품 셀피 스퀘어 SELPHY SQUARE QX10 + 밤토리패키지 세트/ 휴대용 포토&lt;b&gt;프린터&lt;/b&gt; 핸드폰 사진 인화기</t>
+          <t>캐논코리아정품 셀피 스퀘어 SELPHY SQUARE QX10 + 밤토리패키지 세트/ 휴대용 포토프린터 핸드폰 사진 인화기</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
